--- a/usability-report/Report/Heuristic Table - TP.xlsx
+++ b/usability-report/Report/Heuristic Table - TP.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Università\Master - X su 110L\1_Anno\2_Semestre\Hypermedia Application\Repo\Hypermedia-heuristics-evaluation\usability-report\Report\Tommaso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Università\Master - X su 110L\1_Anno\2_Semestre\Hypermedia Application\Repo\Hypermedia-heuristics-evaluation\usability-report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53CCE9C-BF3E-44C8-B48B-D3971742C7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724AA5E1-BE22-43AA-A639-5ABB903A8ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{C89E0D11-E391-4CFF-AFA0-6E286F9253E0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C89E0D11-E391-4CFF-AFA0-6E286F9253E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>Nielsen's Heuristics</t>
   </si>
@@ -530,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,92 +539,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,14 +1026,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE366A-0837-4B80-B995-5C89BCB389C2}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.5546875" style="1" customWidth="1"/>
@@ -980,146 +1044,146 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="16" t="s">
         <v>61</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1127,545 +1191,545 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="15">
         <v>4</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>4</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="17">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="17">
         <v>4</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="15">
         <v>5</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="17">
         <v>5</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="17">
         <v>5</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="15">
         <v>5</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="17">
         <v>3</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="15">
         <v>0</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="17">
         <v>2</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="17">
         <v>5</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>4</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="17">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="17">
         <v>3</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="19">
         <v>5</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="21">
         <v>5</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="21">
         <v>5</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="15">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="17">
         <v>3</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>3</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="17">
         <v>4</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>3</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="17">
         <v>4</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="17">
         <v>4</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="19">
         <v>5</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="15">
         <v>5</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="17">
         <v>3</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="17">
         <v>5</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="17">
         <v>2</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17">
         <v>2</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>2</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="24"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="24"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="24"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1690,4 +1754,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFCF1-8C17-4639-A78A-7A7E9DB4729E}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="43" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="47">
+        <v>3</v>
+      </c>
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="36">
+        <v>4</v>
+      </c>
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="36">
+        <v>3</v>
+      </c>
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="36">
+        <v>3</v>
+      </c>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36">
+        <v>4</v>
+      </c>
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="36">
+        <v>3</v>
+      </c>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="36">
+        <v>2</v>
+      </c>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="36">
+        <v>4</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="36">
+        <v>5</v>
+      </c>
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="39">
+        <v>5</v>
+      </c>
+      <c r="C23" s="51"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="52"/>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="36">
+        <v>2</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="36">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="36">
+        <v>0</v>
+      </c>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="36">
+        <v>3</v>
+      </c>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="36">
+        <v>3</v>
+      </c>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="39">
+        <v>5</v>
+      </c>
+      <c r="C31" s="51"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="36">
+        <v>5</v>
+      </c>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="36">
+        <v>4</v>
+      </c>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="39">
+        <v>2</v>
+      </c>
+      <c r="C37" s="51"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="36">
+        <v>3</v>
+      </c>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="36">
+        <v>4</v>
+      </c>
+      <c r="C41" s="31"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="36">
+        <v>1</v>
+      </c>
+      <c r="C42" s="31"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="36">
+        <v>2</v>
+      </c>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="36">
+        <v>2</v>
+      </c>
+      <c r="C44" s="31"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="36">
+        <v>2</v>
+      </c>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="36">
+        <v>4</v>
+      </c>
+      <c r="C46" s="31"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="36">
+        <v>4</v>
+      </c>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B31 B33:B37 B39:B48 B13:B23" xr:uid="{82CD0E72-BE43-4BA1-BEE1-6389419F9DEF}">
+      <formula1>$A$2:$A$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/usability-report/Report/Heuristic Table - TP.xlsx
+++ b/usability-report/Report/Heuristic Table - TP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Università\Master - X su 110L\1_Anno\2_Semestre\Hypermedia Application\Repo\Hypermedia-heuristics-evaluation\usability-report\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TommasoPasini\Desktop\Hypermedia-heuristics-evaluation\usability-report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724AA5E1-BE22-43AA-A639-5ABB903A8ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0665F-954F-4D6B-AD64-03AFA0416495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C89E0D11-E391-4CFF-AFA0-6E286F9253E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C89E0D11-E391-4CFF-AFA0-6E286F9253E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
   <si>
     <t>Nielsen's Heuristics</t>
   </si>
@@ -322,6 +322,69 @@
   </si>
   <si>
     <t>Scrolling solamente</t>
+  </si>
+  <si>
+    <t>The user can not understand which path it took to reach a page because there is not always the route taken. Sometimes is not undertandable where the cursor is and if a link is clikable</t>
+  </si>
+  <si>
+    <t>The sistem reflect quite well the real world, sometimes there are son language inconsistency</t>
+  </si>
+  <si>
+    <t>Often there is the necessity to use browser arrow to go back, sometimes the logo do not work as link to the home page, and in other case other tab are opened</t>
+  </si>
+  <si>
+    <t>The general structure follows the standars of every website, the pages contains some canonical elements , but other pages are very different in the UI so the consistency is not always respected</t>
+  </si>
+  <si>
+    <t>Ther is not an high risk of doing errors, mainly the donation part handle errors and it does it well</t>
+  </si>
+  <si>
+    <t>The drop down menù is very usefull because the user can chose one of the topic listed, but at the same time there are too many topic listed and sometime they are repeted</t>
+  </si>
+  <si>
+    <t>The route taken by the user is not always visible, the drop down menù is nto displayed anymore in donation page, reding some kind of aricoles open the unicef website of different countries so the user is not in unicef.org anymore</t>
+  </si>
+  <si>
+    <t>Few colors, readable text, sometimes images are too big and hide the important information</t>
+  </si>
+  <si>
+    <t>Alert, pop-up and red error messages are present. Contacts to report feedback, misuses or malfunctions.</t>
+  </si>
+  <si>
+    <t>There is FAQ section, no need of documentation</t>
+  </si>
+  <si>
+    <t>There are too many articles and topic which are not organized well</t>
+  </si>
+  <si>
+    <t>Drop down menù, footer, language change are almost always present in every page</t>
+  </si>
+  <si>
+    <t>Many times there are different titles that brings the user in the same place, other times there are different way to reach a particoular page</t>
+  </si>
+  <si>
+    <t>Sometimes is not visible the clickability of some links</t>
+  </si>
+  <si>
+    <t>The interaction is different most of the time</t>
+  </si>
+  <si>
+    <t>Most of the pages have some elements in common, and depending of hte type of the page the structure is quite similar, there are elements that are not conistente and some pages have complletey different UI</t>
+  </si>
+  <si>
+    <t>The hierarchy is not alway understanable beacuse depending on the link clicked it opens new tab in new websites or other unicef of specific country</t>
+  </si>
+  <si>
+    <t>Some pages have confusing sizes of text or images, the user put the attention not on the main focus of pages</t>
+  </si>
+  <si>
+    <t>The elements are generally with same color and aspect, the UI can differe between sections opened</t>
+  </si>
+  <si>
+    <t>some pages have too much text even if ther need just to present a topic</t>
+  </si>
+  <si>
+    <t>Ther is a lot of scrolling, the navigation can be done through the search bar or the dropdown menu</t>
   </si>
 </sst>
 </file>
@@ -596,6 +659,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -623,10 +731,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,60 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE366A-0837-4B80-B995-5C89BCB389C2}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1048,87 +1111,87 @@
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1760,411 +1823,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFCF1-8C17-4639-A78A-7A7E9DB4729E}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="43" style="35"/>
+    <col min="1" max="1" width="40.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="43" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="25">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="42"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="47">
-        <v>3</v>
-      </c>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="B14" s="31">
+        <v>3</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="25">
         <v>4</v>
       </c>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="C15" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="36">
-        <v>3</v>
-      </c>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="B16" s="25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36">
-        <v>3</v>
-      </c>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="B17" s="25">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="25">
         <v>4</v>
       </c>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="C18" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="36">
-        <v>3</v>
-      </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="B19" s="25">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="25">
         <v>2</v>
       </c>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="C20" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="25">
         <v>4</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="25">
         <v>5</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="22" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="27">
         <v>5</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="35" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="52"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="25">
         <v>2</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="25">
         <v>1</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="25">
         <v>0</v>
       </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="36">
-        <v>3</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="B29" s="25">
+        <v>3</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="36">
-        <v>3</v>
-      </c>
-      <c r="C30" s="31"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="B30" s="25">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="27">
+        <v>4</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="25">
         <v>5</v>
       </c>
-      <c r="C31" s="51"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="C34" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="25">
         <v>2</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="36">
+      <c r="C35" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="25">
         <v>5</v>
       </c>
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-      <c r="C35" s="31"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="36">
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="27">
+        <v>3</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="25"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="25">
+        <v>3</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="25">
         <v>4</v>
       </c>
-      <c r="C36" s="31"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="39">
+      <c r="C41" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="25">
         <v>2</v>
       </c>
-      <c r="C37" s="51"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="31"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="36">
-        <v>3</v>
-      </c>
-      <c r="C40" s="31"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="36">
+      <c r="C42" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="25">
+        <v>3</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="25">
+        <v>2</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="25">
+        <v>2</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="25">
         <v>4</v>
       </c>
-      <c r="C41" s="31"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="36">
-        <v>1</v>
-      </c>
-      <c r="C42" s="31"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="36">
-        <v>2</v>
-      </c>
-      <c r="C43" s="31"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="36">
-        <v>2</v>
-      </c>
-      <c r="C44" s="31"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="36">
-        <v>2</v>
-      </c>
-      <c r="C45" s="31"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="36">
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="25">
         <v>4</v>
       </c>
-      <c r="C46" s="31"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="36">
-        <v>4</v>
-      </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="35" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
